--- a/project/biersorten_resource.xlsx
+++ b/project/biersorten_resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\OneDrive - Pascal Steffens IT-Services\DHBW\WWI18B4\WWi18B4 Webprogrammierung (Sem 3)\Bierkompendium\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CB48AD-2F61-4440-91C5-0078D8E5777B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B0CB48AD-2F61-4440-91C5-0078D8E5777B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDD5C2EA-7A82-4A4A-979B-1B9D315747A0}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1890" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1485" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -167,12 +167,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -234,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -242,12 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,8 +265,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -543,7 +556,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K13" sqref="K13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,44 +566,44 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -610,7 +623,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>0.5</v>
       </c>
       <c r="G4" s="3">
@@ -641,7 +654,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>0.5</v>
       </c>
       <c r="G5" s="3">
@@ -672,7 +685,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>0.5</v>
       </c>
       <c r="G6" s="3">
@@ -703,7 +716,7 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>0.5</v>
       </c>
       <c r="G7" s="3">
@@ -734,7 +747,7 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>0.5</v>
       </c>
       <c r="G8" s="3">
@@ -764,7 +777,7 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <v>0.5</v>
       </c>
       <c r="G9" s="3">
@@ -794,7 +807,7 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <v>0.5</v>
       </c>
       <c r="G10" s="3">
@@ -824,7 +837,7 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>0.5</v>
       </c>
       <c r="G11" s="3">
@@ -854,7 +867,7 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <v>0.33</v>
       </c>
       <c r="G12" s="3">
@@ -884,7 +897,7 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>0.5</v>
       </c>
       <c r="G13" s="3">
@@ -914,7 +927,7 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>0.33</v>
       </c>
       <c r="G14" s="3">
@@ -944,7 +957,7 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="6">
         <v>0.5</v>
       </c>
       <c r="G15" s="3">
@@ -974,7 +987,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>0.5</v>
       </c>
       <c r="G16" s="3">
